--- a/groceryproject/src/test/resources/testdata.xlsx
+++ b/groceryproject/src/test/resources/testdata.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69BFC08F-F911-442E-9C8E-E29A9AF2C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C310FCFF-3BF7-453C-B6F5-8F03A89F81DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{59AD069A-47F8-403B-AECB-975011622676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{59AD069A-47F8-403B-AECB-975011622676}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="addnews" sheetId="2" r:id="rId2"/>
     <sheet name="adminusers" sheetId="3" r:id="rId3"/>
+    <sheet name="contacts" sheetId="4" r:id="rId4"/>
+    <sheet name="category" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M11"/>
+  <oleSize ref="A1:I6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -80,16 +82,60 @@
   </si>
   <si>
     <t>srs</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>delivery time</t>
+  </si>
+  <si>
+    <t>delivery charge limit</t>
+  </si>
+  <si>
+    <t>srs@gmail.com</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>ghi@gmail.com</t>
+  </si>
+  <si>
+    <t>Calicut</t>
+  </si>
+  <si>
+    <t>Category name</t>
+  </si>
+  <si>
+    <t>Sunset</t>
+  </si>
+  <si>
+    <t>Places</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,13 +158,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD6731E-7E3E-4C22-A60F-39F948E287D4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -594,4 +643,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D332C2-D1F9-4C8B-A6CD-B3D568C35E1B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5768943266</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2839475621</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A6F00822-C23A-4DD1-8B27-B398D8793F52}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2EC617CB-4F87-4306-92DF-E6A31B9873CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8301E-7ADB-4F17-AC16-9A59389E215D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>